--- a/empleados_urgente.xlsx
+++ b/empleados_urgente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,216 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.4483912228504919</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.297137667776706</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.766181977734934</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04359046829541003</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9713626056793154</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.22047521509593</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2076720967426716</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.4082219713097301</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.08157262796025892</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.462274879761362</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00574886339674075</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.4917787212771431</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7435712999048737</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.393791765118829</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9915591220969612</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.975524272081292</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.6066383355033261</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.3682984409108239</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9702814852988845</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.976868187731999</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Urgente</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.1992530479237679</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4490224065941755</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6299664682594711</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.767765065775179</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.2901552034469617</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.6371992810223964</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.378966816294452</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.9971845120024523</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4305475524561171</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.1270729501460837</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.618505731887616</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7079504121318752</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.4593449926230596</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.7736869506584741</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.1043754780075489</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.1404793743494502</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.679419599359774</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2112676259669999</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0860768667196133</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.680537461295107</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Urgente</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.2479704206405011</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4349048826299866</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.155807688095482</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5945861529823083</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.895556114850539</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.27844367438868</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.1431165730154033</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8519111230705901</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1.368709330545252</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.1175119483000624</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2311531461057157</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.5379050716330305</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.706182784050936</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4565392483467978</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.09715971810167146</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-1.025027598711729</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.4937585137296926</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.8465328543454981</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.08556606290196202</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.9769685856824871</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Urgente</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
